--- a/CarData.xlsx
+++ b/CarData.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CarData.xlsx
+++ b/CarData.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CarData.xlsx
+++ b/CarData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilrose\Documents\Industry Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilrose\PycharmProjects\IC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -86,9 +86,6 @@
     <t>audi</t>
   </si>
   <si>
-    <t>Ford F-150 XL</t>
-  </si>
-  <si>
     <t>truck</t>
   </si>
   <si>
@@ -96,6 +93,42 @@
   </si>
   <si>
     <t>ford</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>2019 Ford F-150 XL</t>
+  </si>
+  <si>
+    <t>2019 Audi S4 Sedan</t>
+  </si>
+  <si>
+    <t>2019 Audi Q3 SUV</t>
+  </si>
+  <si>
+    <t>suv</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>2019 Hyundai Sonata</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>hyundai</t>
+  </si>
+  <si>
+    <t>2019 Hyundai IONIQ Hybrid</t>
+  </si>
+  <si>
+    <t>hybrid</t>
   </si>
 </sst>
 </file>
@@ -413,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +552,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>29300</v>
@@ -528,7 +561,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -543,10 +576,138 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>51195</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>349</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>34700</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>228</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>22650</v>
+      </c>
+      <c r="C7">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>185</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>20650</v>
+      </c>
+      <c r="C8">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>139</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/CarData.xlsx
+++ b/CarData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>hybrid</t>
+  </si>
+  <si>
+    <t>2019 Hyundai Sante Fe SE</t>
+  </si>
+  <si>
+    <t>2019 Hyundai Palisade</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="A9:F9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,6 +716,70 @@
         <v>32</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>24500</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>185</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>31550</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>291</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CarData.xlsx
+++ b/CarData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Make</t>
   </si>
   <si>
-    <t>2019 Mercedes A Class sedan</t>
-  </si>
-  <si>
     <t>sedan</t>
   </si>
   <si>
@@ -135,6 +132,90 @@
   </si>
   <si>
     <t>2019 Hyundai Palisade</t>
+  </si>
+  <si>
+    <t>2019 Ford Fiesta S</t>
+  </si>
+  <si>
+    <t>2019 Ford Mustang</t>
+  </si>
+  <si>
+    <t>rear</t>
+  </si>
+  <si>
+    <t>2020 Ford Explorer</t>
+  </si>
+  <si>
+    <t>2019 Ford Fusion Hybrid SE</t>
+  </si>
+  <si>
+    <t>2019 Mercedes A-Class Sedan</t>
+  </si>
+  <si>
+    <t>2019 Mercedes E-Class Sedan</t>
+  </si>
+  <si>
+    <t>2019 Mercedes C-Class Sedan</t>
+  </si>
+  <si>
+    <t>2019 Mercedes GLA SUV</t>
+  </si>
+  <si>
+    <t>2019 Mercedes GLC 350e 4MATIC SUV</t>
+  </si>
+  <si>
+    <t>2019 Mercedes SLC Roadster</t>
+  </si>
+  <si>
+    <t>2019 Ford Transit Connect</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>2019 Audi A3 Sedan</t>
+  </si>
+  <si>
+    <t>2019 Toyota Camry</t>
+  </si>
+  <si>
+    <t>toyota</t>
+  </si>
+  <si>
+    <t>2019 Toyota Camry Hybrid</t>
+  </si>
+  <si>
+    <t>2020 Corolla</t>
+  </si>
+  <si>
+    <t>2019 Toyota Prius</t>
+  </si>
+  <si>
+    <t>2020 Toyota GR Supra</t>
+  </si>
+  <si>
+    <t>2020 Toyota Sienna</t>
+  </si>
+  <si>
+    <t>2019 Toyota 86</t>
+  </si>
+  <si>
+    <t>2019 Toyota Tundra</t>
+  </si>
+  <si>
+    <t>2019 Toyota C-HR</t>
+  </si>
+  <si>
+    <t>2019 Toyota RAV4 Hybrid</t>
+  </si>
+  <si>
+    <t>2019 Toyota Highlander Hybrid</t>
+  </si>
+  <si>
+    <t>2019 Toyota Sequoia</t>
   </si>
 </sst>
 </file>
@@ -452,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +575,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>32500</v>
@@ -503,13 +584,13 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>188</v>
@@ -518,15 +599,15 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>56200</v>
@@ -535,13 +616,13 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>394</v>
@@ -550,15 +631,15 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>29300</v>
@@ -567,13 +648,13 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -582,15 +663,15 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>51195</v>
@@ -599,13 +680,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>349</v>
@@ -614,170 +695,906 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>34700</v>
+        <v>33300</v>
       </c>
       <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>184</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
-        <v>228</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>22650</v>
+        <v>34700</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>228</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
-        <v>185</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>20650</v>
+        <v>22650</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>185</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8">
-        <v>139</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>24500</v>
+        <v>20650</v>
       </c>
       <c r="C9">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>24500</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>185</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>31550</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>291</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B10">
-        <v>31550</v>
-      </c>
-      <c r="C10">
+      <c r="B12">
+        <v>14260</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>120</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>26395</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>310</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>36675</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>400</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>27555</v>
+      </c>
+      <c r="C15">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>188</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>26845</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>162</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>53500</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>241</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>43800</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>255</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>33950</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>208</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>50650</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>315</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>48950</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>241</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>24095</v>
+      </c>
+      <c r="C22">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>203</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>28400</v>
+      </c>
+      <c r="C23">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>208</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>19500</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>139</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>23770</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>121</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>49990</v>
+      </c>
+      <c r="C26">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>335</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>31415</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>296</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
+        <v>26655</v>
+      </c>
+      <c r="C28">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>205</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>31670</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>310</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>21145</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>144</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>27850</v>
+      </c>
+      <c r="C31">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31">
+        <v>219</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>37320</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32">
+        <v>306</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s">
         <v>13</v>
       </c>
-      <c r="G10">
-        <v>291</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33">
+        <v>49050</v>
+      </c>
+      <c r="C33">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>381</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/CarData.xlsx
+++ b/CarData.xlsx
@@ -188,9 +188,6 @@
     <t>2019 Toyota Camry Hybrid</t>
   </si>
   <si>
-    <t>2020 Corolla</t>
-  </si>
-  <si>
     <t>2019 Toyota Prius</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>2019 Toyota Sequoia</t>
+  </si>
+  <si>
+    <t>2020 Toyota Corolla</t>
   </si>
 </sst>
 </file>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>19500</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>23770</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>49990</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>31415</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>26655</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>31670</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>21145</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>27850</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>37320</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>49050</v>
